--- a/src/output/extracted_data_batch2-0478.xlsx
+++ b/src/output/extracted_data_batch2-0478.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>seal_and_sign_present</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>logo_path</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,7 +508,12 @@
         </is>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>D:\YAVAR-AI-HACKATHON\src\output\batch2-0478_logo.png</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/src/output/extracted_data_batch2-0478.xlsx
+++ b/src/output/extracted_data_batch2-0478.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,6 @@
           <t>seal_and_sign_present</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>logo_path</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -508,12 +503,7 @@
         </is>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>D:\YAVAR-AI-HACKATHON\src\output\batch2-0478_logo.png</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
